--- a/compute/result/8.4.2-result.xlsx
+++ b/compute/result/8.4.2-result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\pythonProject\EdgeFed-MARL-MEC\compute\实验8.4.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\pythonProject\EdgeFed-MARL-MEC\compute\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6620C70-E5CD-48DE-AF1E-EFB30F82A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B989510C-BF37-45EB-851A-B4835BE05CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="2295" windowWidth="23160" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26850" yWindow="1950" windowWidth="21600" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>filenames</t>
   </si>
@@ -93,6 +91,48 @@
   <si>
     <t>二</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20211122-135517</t>
+  </si>
+  <si>
+    <t>20211122-115550</t>
+  </si>
+  <si>
+    <t>20211122-095756</t>
+  </si>
+  <si>
+    <t>20211122-080027</t>
+  </si>
+  <si>
+    <t>20211122-060237</t>
+  </si>
+  <si>
+    <t>20211122-040458</t>
+  </si>
+  <si>
+    <t>20211122-020442</t>
+  </si>
+  <si>
+    <t>20211122-000524</t>
+  </si>
+  <si>
+    <t>20211121-220818</t>
+  </si>
+  <si>
+    <t>20211121-201013</t>
+  </si>
+  <si>
+    <t>max_ages</t>
+  </si>
+  <si>
+    <t>min_ages</t>
+  </si>
+  <si>
+    <t>max_averages</t>
+  </si>
+  <si>
+    <t>min_averages</t>
   </si>
 </sst>
 </file>
@@ -111,6 +151,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -172,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -189,11 +230,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,19 +541,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -533,7 +579,7 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -553,7 +599,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -571,7 +617,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -589,7 +635,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -607,7 +653,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
@@ -673,7 +719,7 @@
       <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -693,7 +739,7 @@
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
@@ -711,7 +757,7 @@
       <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
@@ -729,7 +775,7 @@
       <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
@@ -747,7 +793,7 @@
       <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
@@ -761,7 +807,7 @@
         <v>6.9357208726666677</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -778,7 +824,7 @@
         <v>6.9384306330000012</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -793,6 +839,386 @@
       <c r="F18" s="1">
         <f t="shared" si="3"/>
         <v>1.1547795185981799E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>7.6714509449999992</v>
+      </c>
+      <c r="D23">
+        <v>25.065688886</v>
+      </c>
+      <c r="E23">
+        <v>6.926161878666667</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>7.8150000000000004</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>40.133333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>7.6843872580000001</v>
+      </c>
+      <c r="D24">
+        <v>25.493983338333329</v>
+      </c>
+      <c r="E24">
+        <v>6.9191141566666667</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>7.8250000000000002</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>39.333333000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>7.6764610553333332</v>
+      </c>
+      <c r="D25">
+        <v>25.231677774000001</v>
+      </c>
+      <c r="E25">
+        <v>6.9231430656666646</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>7.8150000000000004</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>38.183332999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>7.6864310626666681</v>
+      </c>
+      <c r="D26">
+        <v>25.82760000433333</v>
+      </c>
+      <c r="E26">
+        <v>6.9082625643333326</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>7.8449999999999998</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>41.883333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>7.6573034079999998</v>
+      </c>
+      <c r="D27">
+        <v>24.791783332666672</v>
+      </c>
+      <c r="E27">
+        <v>6.9267566513333332</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>7.81</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>39.083333000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
+      <c r="C28">
+        <f>AVERAGE(C23:C27)</f>
+        <v>7.6752067457999997</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(D23:D27)</f>
+        <v>25.282146667066666</v>
+      </c>
+      <c r="E28">
+        <f>AVERAGE(E23:E27)</f>
+        <v>6.9206876633333341</v>
+      </c>
+      <c r="F28">
+        <f>AVERAGE(F23:F27)</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>AVERAGE(G23:G27)</f>
+        <v>7.8220000000000001</v>
+      </c>
+      <c r="H28">
+        <f>AVERAGE(H23:H27)</f>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f>AVERAGE(I23:I27)</f>
+        <v>39.723333000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>7.6837397126666671</v>
+      </c>
+      <c r="D30">
+        <v>26.18650555633333</v>
+      </c>
+      <c r="E30">
+        <v>6.8929286750000003</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>7.835</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>39.083333000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>7.6904805963333338</v>
+      </c>
+      <c r="D31">
+        <v>25.26541667</v>
+      </c>
+      <c r="E31">
+        <v>6.9314390226666669</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>7.83</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>39.450000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>7.6930585300000001</v>
+      </c>
+      <c r="D32">
+        <v>25.781127784999999</v>
+      </c>
+      <c r="E32">
+        <v>6.9139970309999992</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>7.84</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>7.6779757763333336</v>
+      </c>
+      <c r="D33">
+        <v>24.763850002000002</v>
+      </c>
+      <c r="E33">
+        <v>6.9430872306666664</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>7.8550000000000004</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>36.866667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>7.6448365500000008</v>
+      </c>
+      <c r="D34">
+        <v>26.755994445666659</v>
+      </c>
+      <c r="E34">
+        <v>6.8475086110000003</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>7.85</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>47.033332999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C35">
+        <f>AVERAGE(C30:C34)</f>
+        <v>7.678018233066668</v>
+      </c>
+      <c r="D35">
+        <f>AVERAGE(D30:D34)</f>
+        <v>25.7505788918</v>
+      </c>
+      <c r="E35">
+        <f>AVERAGE(E30:E34)</f>
+        <v>6.9057921140666663</v>
+      </c>
+      <c r="F35">
+        <f>AVERAGE(F30:F34)</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f>AVERAGE(G30:G34)</f>
+        <v>7.8420000000000005</v>
+      </c>
+      <c r="H35">
+        <f>AVERAGE(H30:H34)</f>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f>AVERAGE(I30:I34)</f>
+        <v>40.646666599999996</v>
       </c>
     </row>
   </sheetData>
